--- a/sTools/excelTable/entity.xlsx
+++ b/sTools/excelTable/entity.xlsx
@@ -16,32 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxHp(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMp(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveSpeed(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strength(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillID(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,7 +70,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(C)NameID(S)</t>
+    <t>模型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C)ModelName(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S)Strength(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S)SkillID(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S)MaxHp(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S)MaxMp(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C)NameID(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,74 +443,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -506,25 +526,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>90000</v>
       </c>
@@ -532,21 +555,24 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>200</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
